--- a/100runs/run011/NotionalETEOutput011.xlsx
+++ b/100runs/run011/NotionalETEOutput011.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="18">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,13 +49,25 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND_State_Update</t>
+    <t>Missile_SOMERSAULT_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_35.MISSILE_HIGHWIND_35</t>
+    <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND</t>
+    <t>MISSILE_SOMERSAULT_416.MISSILE_SOMERSAULT_416</t>
+  </si>
+  <si>
+    <t>MISSILE_SOMERSAULT_401.MISSILE_SOMERSAULT_401</t>
+  </si>
+  <si>
+    <t>MISSILE_BRAVER_281.MISSILE_BRAVER_281</t>
+  </si>
+  <si>
+    <t>MISSILE_SOMERSAULT</t>
+  </si>
+  <si>
+    <t>MISSILE_BRAVER</t>
   </si>
 </sst>
 </file>
@@ -413,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,31 +474,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>274.4015694284939</v>
+        <v>1116579.255313216</v>
       </c>
       <c r="G2">
-        <v>-72.04961248561766</v>
+        <v>4841113.699040868</v>
       </c>
       <c r="H2">
-        <v>832.9213267112449</v>
+        <v>3985228.817279388</v>
       </c>
       <c r="I2">
-        <v>-1282.310777913145</v>
+        <v>1114861.198318471</v>
       </c>
       <c r="J2">
-        <v>2497.966036993799</v>
+        <v>4843234.591787288</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984370.345510115</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -497,31 +509,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>274.4015694284939</v>
+        <v>1116579.255313216</v>
       </c>
       <c r="G3">
-        <v>-72.04961248561766</v>
+        <v>4841113.699040868</v>
       </c>
       <c r="H3">
-        <v>832.9213267112449</v>
+        <v>3985228.817279388</v>
       </c>
       <c r="I3">
-        <v>-1256.99454870038</v>
+        <v>1114890.812310708</v>
       </c>
       <c r="J3">
-        <v>2437.201029465013</v>
+        <v>4843185.940085368</v>
       </c>
       <c r="K3">
-        <v>380.2163157369647</v>
+        <v>3984674.141503947</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -532,31 +544,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>274.4015694284939</v>
+        <v>1116579.255313216</v>
       </c>
       <c r="G4">
-        <v>-72.04961248561766</v>
+        <v>4841113.699040868</v>
       </c>
       <c r="H4">
-        <v>832.9213267112449</v>
+        <v>3985228.817279388</v>
       </c>
       <c r="I4">
-        <v>-1231.054930633754</v>
+        <v>1114921.15552026</v>
       </c>
       <c r="J4">
-        <v>2376.436021936227</v>
+        <v>4843137.288383448</v>
       </c>
       <c r="K4">
-        <v>741.473303122261</v>
+        <v>3984962.788836976</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -567,31 +579,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>274.4015694284939</v>
+        <v>1116579.255313216</v>
       </c>
       <c r="G5">
-        <v>-72.04961248561766</v>
+        <v>4841113.699040868</v>
       </c>
       <c r="H5">
-        <v>832.9213267112449</v>
+        <v>3985228.817279388</v>
       </c>
       <c r="I5">
-        <v>-1204.476573336249</v>
+        <v>1114952.245903432</v>
       </c>
       <c r="J5">
-        <v>2315.671014407441</v>
+        <v>4843088.636681529</v>
       </c>
       <c r="K5">
-        <v>1083.770962155892</v>
+        <v>3985236.287509201</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -602,31 +614,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>274.4015694284939</v>
+        <v>1116579.255313216</v>
       </c>
       <c r="G6">
-        <v>-72.04961248561766</v>
+        <v>4841113.699040868</v>
       </c>
       <c r="H6">
-        <v>832.9213267112449</v>
+        <v>3985228.817279388</v>
       </c>
       <c r="I6">
-        <v>-1177.243748441933</v>
+        <v>1114984.101858687</v>
       </c>
       <c r="J6">
-        <v>2254.906006878656</v>
+        <v>4843039.984979609</v>
       </c>
       <c r="K6">
-        <v>1407.109292837854</v>
+        <v>3985494.637520623</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -637,31 +649,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>274.4015694284939</v>
+        <v>1116579.255313216</v>
       </c>
       <c r="G7">
-        <v>-72.04961248561766</v>
+        <v>4841113.699040868</v>
       </c>
       <c r="H7">
-        <v>832.9213267112449</v>
+        <v>3985228.817279388</v>
       </c>
       <c r="I7">
-        <v>-1149.340340288333</v>
+        <v>1115016.742237533</v>
       </c>
       <c r="J7">
-        <v>2194.14099934987</v>
+        <v>4842991.33327769</v>
       </c>
       <c r="K7">
-        <v>1711.488295168152</v>
+        <v>3985737.838871242</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -672,31 +684,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>274.4015694284939</v>
+        <v>1116579.255313216</v>
       </c>
       <c r="G8">
-        <v>-72.04961248561766</v>
+        <v>4841113.699040868</v>
       </c>
       <c r="H8">
-        <v>832.9213267112449</v>
+        <v>3985228.817279388</v>
       </c>
       <c r="I8">
-        <v>-1120.749836379616</v>
+        <v>1115050.18635568</v>
       </c>
       <c r="J8">
-        <v>2133.375991821084</v>
+        <v>4842942.68157577</v>
       </c>
       <c r="K8">
-        <v>1996.907969146781</v>
+        <v>3985965.891561057</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -707,31 +719,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>274.4015694284939</v>
+        <v>1116579.255313216</v>
       </c>
       <c r="G9">
-        <v>-72.04961248561766</v>
+        <v>4841113.699040868</v>
       </c>
       <c r="H9">
-        <v>832.9213267112449</v>
+        <v>3985228.817279388</v>
       </c>
       <c r="I9">
-        <v>-1091.455317614929</v>
+        <v>1115084.454004467</v>
       </c>
       <c r="J9">
-        <v>2072.610984292298</v>
+        <v>4842894.029873851</v>
       </c>
       <c r="K9">
-        <v>2263.368314773745</v>
+        <v>3986178.79559007</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -742,31 +754,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>274.4015694284939</v>
+        <v>1116579.255313216</v>
       </c>
       <c r="G10">
-        <v>-60.15219340107593</v>
+        <v>4841130.211823021</v>
       </c>
       <c r="H10">
-        <v>832.9213267112449</v>
+        <v>3985228.817279388</v>
       </c>
       <c r="I10">
-        <v>-1061.439448276124</v>
+        <v>1115119.565462581</v>
       </c>
       <c r="J10">
-        <v>2011.845976763512</v>
+        <v>4842845.378171931</v>
       </c>
       <c r="K10">
-        <v>2510.86933204904</v>
+        <v>3986376.550958278</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -777,31 +789,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>212.96762859185</v>
+        <v>1116530.574716683</v>
       </c>
       <c r="G11">
-        <v>-48.2547743165342</v>
+        <v>4841146.724605174</v>
       </c>
       <c r="H11">
-        <v>1026.153469734156</v>
+        <v>3985428.071710608</v>
       </c>
       <c r="I11">
-        <v>-1030.684465768944</v>
+        <v>1115155.541508049</v>
       </c>
       <c r="J11">
-        <v>1951.080969234726</v>
+        <v>4842796.726470011</v>
       </c>
       <c r="K11">
-        <v>2739.411020972668</v>
+        <v>3986559.157665684</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -812,31 +824,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>176.8782702094752</v>
+        <v>1116501.977308303</v>
       </c>
       <c r="G12">
-        <v>-36.35735523199249</v>
+        <v>4841163.237387327</v>
       </c>
       <c r="H12">
-        <v>1141.252416385568</v>
+        <v>3985546.757840101</v>
       </c>
       <c r="I12">
-        <v>-999.1721701115904</v>
+        <v>1115192.403430539</v>
       </c>
       <c r="J12">
-        <v>1890.31596170594</v>
+        <v>4842748.074768092</v>
       </c>
       <c r="K12">
-        <v>2948.993381544631</v>
+        <v>3986726.615712286</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -847,31 +859,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>154.0960195492309</v>
+        <v>1116483.924526121</v>
       </c>
       <c r="G13">
-        <v>-24.45993614745075</v>
+        <v>4841179.750169481</v>
       </c>
       <c r="H13">
-        <v>1223.505854316923</v>
+        <v>3985631.574795161</v>
       </c>
       <c r="I13">
-        <v>-966.8839131644542</v>
+        <v>1115230.173043958</v>
       </c>
       <c r="J13">
-        <v>1829.550954177154</v>
+        <v>4842699.423066172</v>
       </c>
       <c r="K13">
-        <v>3139.616413764927</v>
+        <v>3986878.925098085</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -882,31 +894,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>138.2077704173611</v>
+        <v>1116471.334589109</v>
       </c>
       <c r="G14">
-        <v>-12.56251706290903</v>
+        <v>4841196.262951633</v>
       </c>
       <c r="H14">
-        <v>1287.556562366757</v>
+        <v>3985697.621712625</v>
       </c>
       <c r="I14">
-        <v>-933.8005875946469</v>
+        <v>1115268.87269936</v>
       </c>
       <c r="J14">
-        <v>1768.785946648369</v>
+        <v>4842650.771364252</v>
       </c>
       <c r="K14">
-        <v>3311.280117633556</v>
+        <v>3987016.085823081</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -917,31 +929,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>126.3546607662121</v>
+        <v>1116461.942119071</v>
       </c>
       <c r="G15">
-        <v>-0.6650979783673073</v>
+        <v>4841212.775733787</v>
       </c>
       <c r="H15">
-        <v>1340.01906048535</v>
+        <v>3985751.719261094</v>
       </c>
       <c r="I15">
-        <v>-899.9026155687847</v>
+        <v>1115308.525298173</v>
       </c>
       <c r="J15">
-        <v>1708.020939119583</v>
+        <v>4842602.119662333</v>
       </c>
       <c r="K15">
-        <v>3463.984493150517</v>
+        <v>3987138.097887273</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -952,31 +964,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>117.0871842567038</v>
+        <v>1116454.598519122</v>
       </c>
       <c r="G16">
-        <v>11.23232110617442</v>
+        <v>4841229.288515939</v>
       </c>
       <c r="H16">
-        <v>1384.450966815046</v>
+        <v>3985797.535935718</v>
       </c>
       <c r="I16">
-        <v>-865.1699371673478</v>
+        <v>1115349.154305753</v>
       </c>
       <c r="J16">
-        <v>1647.255931590797</v>
+        <v>4842553.467960413</v>
       </c>
       <c r="K16">
-        <v>3597.729540315812</v>
+        <v>3987244.961290662</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -987,31 +999,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>109.5891209734206</v>
+        <v>1116448.657012058</v>
       </c>
       <c r="G17">
-        <v>23.12974019071615</v>
+        <v>4841245.801298092</v>
       </c>
       <c r="H17">
-        <v>1422.98755329993</v>
+        <v>3985837.273556494</v>
       </c>
       <c r="I17">
-        <v>-829.5819985137537</v>
+        <v>1115390.783765266</v>
       </c>
       <c r="J17">
-        <v>1586.490924062011</v>
+        <v>4842504.816258493</v>
       </c>
       <c r="K17">
-        <v>3712.51525912944</v>
+        <v>3987336.676033248</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1022,31 +1034,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>103.3630567386755</v>
+        <v>1116443.723444117</v>
       </c>
       <c r="G18">
-        <v>35.02715927525787</v>
+        <v>4841262.314080246</v>
       </c>
       <c r="H18">
-        <v>1457.011545828324</v>
+        <v>3985872.357943455</v>
       </c>
       <c r="I18">
-        <v>-793.1177396111183</v>
+        <v>1115433.438311921</v>
       </c>
       <c r="J18">
-        <v>1525.725916533225</v>
+        <v>4842456.164556574</v>
       </c>
       <c r="K18">
-        <v>3808.341649591401</v>
+        <v>3987413.24211503</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1057,31 +1069,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>98.08693575285714</v>
+        <v>1116439.542616491</v>
       </c>
       <c r="G19">
-        <v>46.92457835979961</v>
+        <v>4841278.826862399</v>
       </c>
       <c r="H19">
-        <v>1487.469865751103</v>
+        <v>3985903.765529777</v>
       </c>
       <c r="I19">
-        <v>-755.7555818795082</v>
+        <v>1115477.143187546</v>
       </c>
       <c r="J19">
-        <v>1464.960909004439</v>
+        <v>4842407.512854654</v>
       </c>
       <c r="K19">
-        <v>3885.208711701695</v>
+        <v>3987474.659536009</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1092,31 +1104,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>93.54207226387061</v>
+        <v>1116435.941241376</v>
       </c>
       <c r="G20">
-        <v>58.82199744434133</v>
+        <v>4841295.339644551</v>
       </c>
       <c r="H20">
-        <v>1515.039482748299</v>
+        <v>3985932.19438363</v>
       </c>
       <c r="I20">
-        <v>-717.4734153863121</v>
+        <v>1115521.924255526</v>
       </c>
       <c r="J20">
-        <v>1404.195901475653</v>
+        <v>4842358.861152735</v>
       </c>
       <c r="K20">
-        <v>3943.116445460322</v>
+        <v>3987520.928296185</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1127,31 +1139,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>89.5741715970063</v>
+        <v>1116432.79705481</v>
       </c>
       <c r="G21">
-        <v>70.71941652888304</v>
+        <v>4841311.852426705</v>
       </c>
       <c r="H21">
-        <v>1540.221179917118</v>
+        <v>3985958.160895557</v>
       </c>
       <c r="I21">
-        <v>-678.2485857621687</v>
+        <v>1115567.808016106</v>
       </c>
       <c r="J21">
-        <v>1343.430893946867</v>
+        <v>4842310.209450815</v>
       </c>
       <c r="K21">
-        <v>3982.064850867283</v>
+        <v>3987552.048395558</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1162,31 +1174,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>86.07089033274337</v>
+        <v>1116430.021035245</v>
       </c>
       <c r="G22">
-        <v>82.61683561342478</v>
+        <v>4841328.365208858</v>
       </c>
       <c r="H22">
-        <v>1563.395841407523</v>
+        <v>3985982.057820374</v>
       </c>
       <c r="I22">
-        <v>-638.057880794712</v>
+        <v>1115614.821622079</v>
       </c>
       <c r="J22">
-        <v>1282.665886418082</v>
+        <v>4842261.557748895</v>
       </c>
       <c r="K22">
-        <v>4002.053927922576</v>
+        <v>3987568.019834127</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1197,31 +1209,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>82.94825135492778</v>
+        <v>1116427.546638744</v>
       </c>
       <c r="G23">
-        <v>94.51425469796651</v>
+        <v>4841344.877991011</v>
       </c>
       <c r="H23">
-        <v>1584.859914943373</v>
+        <v>3986004.190844917</v>
       </c>
       <c r="I23">
-        <v>-596.8775166922023</v>
+        <v>1115662.992894847</v>
       </c>
       <c r="J23">
-        <v>1221.900878889296</v>
+        <v>4842212.906046976</v>
       </c>
       <c r="K23">
-        <v>4003.083676626203</v>
+        <v>3987568.842611893</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1232,31 +1244,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>80.14206707811149</v>
+        <v>1116425.32300271</v>
       </c>
       <c r="G24">
-        <v>106.4116737825082</v>
+        <v>4841361.390773164</v>
       </c>
       <c r="H24">
-        <v>1604.848661338496</v>
+        <v>3986024.802562157</v>
       </c>
       <c r="I24">
-        <v>-554.6831240089087</v>
+        <v>1115712.35034089</v>
       </c>
       <c r="J24">
-        <v>1161.13587136051</v>
+        <v>4842164.254345056</v>
       </c>
       <c r="K24">
-        <v>3985.154096978163</v>
+        <v>3987554.516728855</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1267,31 +1279,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>77.60232877785924</v>
+        <v>1116423.31049995</v>
       </c>
       <c r="G25">
-        <v>118.30909286705</v>
+        <v>4841377.903555317</v>
       </c>
       <c r="H25">
-        <v>1623.551914645414</v>
+        <v>3986044.088722531</v>
       </c>
       <c r="I25">
-        <v>-511.4497332239182</v>
+        <v>1115762.923168635</v>
       </c>
       <c r="J25">
-        <v>1100.370863831724</v>
+        <v>4842115.602643136</v>
       </c>
       <c r="K25">
-        <v>3948.265188978456</v>
+        <v>3987525.042185015</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1302,31 +1314,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>75.28942283175375</v>
+        <v>1116421.47774041</v>
       </c>
       <c r="G26">
-        <v>130.2065119515917</v>
+        <v>4841394.416337471</v>
       </c>
       <c r="H26">
-        <v>1641.125073589407</v>
+        <v>3986062.209567931</v>
       </c>
       <c r="I26">
-        <v>-467.1517599648377</v>
+        <v>1115814.741305735</v>
       </c>
       <c r="J26">
-        <v>1039.605856302938</v>
+        <v>4842066.950941217</v>
       </c>
       <c r="K26">
-        <v>3892.416952627082</v>
+        <v>3987480.41898037</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1337,31 +1349,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>73.17151083020769</v>
+        <v>1116419.799495156</v>
       </c>
       <c r="G27">
-        <v>142.1039310361334</v>
+        <v>4841410.929119622</v>
       </c>
       <c r="H27">
-        <v>1657.696957426213</v>
+        <v>3986079.297932405</v>
       </c>
       <c r="I27">
-        <v>-421.7629898676405</v>
+        <v>1115867.835416791</v>
       </c>
       <c r="J27">
-        <v>978.8408487741522</v>
+        <v>4842018.299239296</v>
       </c>
       <c r="K27">
-        <v>3817.609387924042</v>
+        <v>3987420.647114923</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1372,31 +1384,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>71.22267323892814</v>
+        <v>1116418.255225405</v>
       </c>
       <c r="G28">
-        <v>154.0013501206751</v>
+        <v>4841427.441901776</v>
       </c>
       <c r="H28">
-        <v>1673.375541930689</v>
+        <v>3986095.46515691</v>
       </c>
       <c r="I28">
-        <v>-375.2565630637028</v>
+        <v>1115922.236921486</v>
       </c>
       <c r="J28">
-        <v>918.0758412453665</v>
+        <v>4841969.647537377</v>
       </c>
       <c r="K28">
-        <v>3723.842494869334</v>
+        <v>3987345.726588672</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1407,31 +1419,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>69.42156705707532</v>
+        <v>1116416.828018845</v>
       </c>
       <c r="G29">
-        <v>165.8987692052169</v>
+        <v>4841443.95468393</v>
       </c>
       <c r="H29">
-        <v>1688.25222695273</v>
+        <v>3986110.80548987</v>
       </c>
       <c r="I29">
-        <v>-327.6049582848458</v>
+        <v>1115977.978013184</v>
       </c>
       <c r="J29">
-        <v>857.3108337165805</v>
+        <v>4841920.995835458</v>
       </c>
       <c r="K29">
-        <v>3611.11627346296</v>
+        <v>3987255.657401619</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1442,31 +1454,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>67.7504374541049</v>
+        <v>1116415.50380645</v>
       </c>
       <c r="G30">
-        <v>177.7961882897586</v>
+        <v>4841460.467466082</v>
       </c>
       <c r="H30">
-        <v>1702.405064761179</v>
+        <v>3986125.399416137</v>
       </c>
       <c r="I30">
-        <v>-278.7799765769822</v>
+        <v>1116035.091677986</v>
       </c>
       <c r="J30">
-        <v>796.5458261877945</v>
+        <v>4841872.344133538</v>
       </c>
       <c r="K30">
-        <v>3479.430723704918</v>
+        <v>3987150.439553761</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1477,31 +1489,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>66.19437818454129</v>
+        <v>1116414.270776427</v>
       </c>
       <c r="G31">
-        <v>189.6936073743003</v>
+        <v>4841476.980248235</v>
       </c>
       <c r="H31">
-        <v>1715.901238800333</v>
+        <v>3986139.316213</v>
       </c>
       <c r="I31">
-        <v>-228.752724612722</v>
+        <v>1116093.611714239</v>
       </c>
       <c r="J31">
-        <v>735.7808186590089</v>
+        <v>4841823.692431618</v>
       </c>
       <c r="K31">
-        <v>3328.785845595211</v>
+        <v>3987030.073045101</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1512,31 +1524,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>64.74077005675139</v>
+        <v>1116413.118929259</v>
       </c>
       <c r="G32">
-        <v>201.5910264588421</v>
+        <v>4841493.493030389</v>
       </c>
       <c r="H32">
-        <v>1728.798992478738</v>
+        <v>3986152.615939086</v>
       </c>
       <c r="I32">
-        <v>-177.4935975930699</v>
+        <v>1116153.572752548</v>
       </c>
       <c r="J32">
-        <v>675.0158111302229</v>
+        <v>4841775.040729699</v>
       </c>
       <c r="K32">
-        <v>3159.181639133835</v>
+        <v>3986894.557875637</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1547,31 +1559,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>63.37884894634534</v>
+        <v>1116412.039735393</v>
       </c>
       <c r="G33">
-        <v>213.4884455433838</v>
+        <v>4841510.005812542</v>
       </c>
       <c r="H33">
-        <v>1741.14914821692</v>
+        <v>3986165.351000751</v>
       </c>
       <c r="I33">
-        <v>-124.9722617280906</v>
+        <v>1116215.010276262</v>
       </c>
       <c r="J33">
-        <v>614.2508036014372</v>
+        <v>4841726.389027779</v>
       </c>
       <c r="K33">
-        <v>2970.618104320794</v>
+        <v>3986743.89404537</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1582,31 +1594,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>62.09936947320136</v>
+        <v>1116411.02586874</v>
       </c>
       <c r="G34">
-        <v>225.3858646279255</v>
+        <v>4841526.518594694</v>
       </c>
       <c r="H34">
-        <v>1752.996316962607</v>
+        <v>3986177.567399291</v>
       </c>
       <c r="I34">
-        <v>-71.15763628617924</v>
+        <v>1116277.960642476</v>
       </c>
       <c r="J34">
-        <v>553.4857960726513</v>
+        <v>4841677.73732586</v>
       </c>
       <c r="K34">
-        <v>2763.095241156085</v>
+        <v>3986578.081554299</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1617,31 +1629,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>60.89434028555819</v>
+        <v>1116410.070996907</v>
       </c>
       <c r="G35">
-        <v>237.2832837124672</v>
+        <v>4841543.031376847</v>
       </c>
       <c r="H35">
-        <v>1764.379870906142</v>
+        <v>3986189.305733974</v>
       </c>
       <c r="I35">
-        <v>-16.01787520130862</v>
+        <v>1116342.461103545</v>
       </c>
       <c r="J35">
-        <v>492.7207885438652</v>
+        <v>4841629.08562394</v>
       </c>
       <c r="K35">
-        <v>2536.613049639709</v>
+        <v>3986397.120402426</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1652,31 +1664,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>59.75681361195626</v>
+        <v>1116409.169614442</v>
       </c>
       <c r="G36">
-        <v>249.180702797009</v>
+        <v>4841559.544159001</v>
       </c>
       <c r="H36">
-        <v>1775.334732939119</v>
+        <v>3986200.6020161</v>
       </c>
       <c r="I36">
-        <v>40.47965177262708</v>
+        <v>1116408.549829128</v>
       </c>
       <c r="J36">
-        <v>431.9557810150796</v>
+        <v>4841580.43392202</v>
       </c>
       <c r="K36">
-        <v>2291.171529771667</v>
+        <v>3986201.010589749</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1687,31 +1699,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>58.68071641051235</v>
+        <v>1116408.316909032</v>
       </c>
       <c r="G37">
-        <v>261.0781218815507</v>
+        <v>4841576.056941153</v>
       </c>
       <c r="H37">
-        <v>1785.892022786306</v>
+        <v>3986211.488335275</v>
       </c>
       <c r="I37">
-        <v>98.3683783715241</v>
+        <v>1116476.265928778</v>
       </c>
       <c r="J37">
-        <v>371.1907734862936</v>
+        <v>4841531.782220101</v>
       </c>
       <c r="K37">
-        <v>2026.770681551958</v>
+        <v>3985989.752116268</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1722,31 +1734,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>57.66071373889452</v>
+        <v>1116407.50865324</v>
       </c>
       <c r="G38">
-        <v>272.9755409660924</v>
+        <v>4841592.569723306</v>
       </c>
       <c r="H38">
-        <v>1796.079589945111</v>
+        <v>3986221.993408955</v>
       </c>
       <c r="I38">
-        <v>157.6825616062675</v>
+        <v>1116545.649475084</v>
       </c>
       <c r="J38">
-        <v>310.4257659575079</v>
+        <v>4841483.130518181</v>
       </c>
       <c r="K38">
-        <v>1743.410504980582</v>
+        <v>3985763.344981984</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1757,31 +1769,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>56.69209732462912</v>
+        <v>1116406.741116204</v>
       </c>
       <c r="G39">
-        <v>284.8729600506342</v>
+        <v>4841609.08250546</v>
       </c>
       <c r="H39">
-        <v>1805.922456424802</v>
+        <v>3986232.143038986</v>
       </c>
       <c r="I39">
-        <v>218.4573020351179</v>
+        <v>1116616.741527387</v>
       </c>
       <c r="J39">
-        <v>249.6607584287219</v>
+        <v>4841434.478816261</v>
       </c>
       <c r="K39">
-        <v>1441.091000057538</v>
+        <v>3985521.789186897</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1792,31 +1804,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>55.77069402253829</v>
+        <v>1116406.010991101</v>
       </c>
       <c r="G40">
-        <v>296.7703791351759</v>
+        <v>4841625.595287614</v>
       </c>
       <c r="H40">
-        <v>1815.443187006953</v>
+        <v>3986241.960493409</v>
       </c>
       <c r="I40">
-        <v>280.7285645352934</v>
+        <v>1116689.584156074</v>
       </c>
       <c r="J40">
-        <v>188.895750899936</v>
+        <v>4841385.827114342</v>
       </c>
       <c r="K40">
-        <v>1119.812166782828</v>
+        <v>3985265.084731007</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1827,31 +1839,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>54.89279009769502</v>
+        <v>1116405.315335146</v>
       </c>
       <c r="G41">
-        <v>308.6677982197176</v>
+        <v>4841642.108069765</v>
       </c>
       <c r="H41">
-        <v>1824.66220081507</v>
+        <v>3986251.466827727</v>
       </c>
       <c r="I41">
-        <v>344.5331995860236</v>
+        <v>1116764.220467478</v>
       </c>
       <c r="J41">
-        <v>128.1307433711503</v>
+        <v>4841337.175412422</v>
       </c>
       <c r="K41">
-        <v>779.5740051564522</v>
+        <v>3984993.231614314</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1862,31 +1874,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>54.05506820000744</v>
+        <v>1116404.651519653</v>
       </c>
       <c r="G42">
-        <v>320.5652173042593</v>
+        <v>4841658.620851919</v>
       </c>
       <c r="H42">
-        <v>1833.598035015055</v>
+        <v>3986260.68115684</v>
       </c>
       <c r="I42">
-        <v>409.9089650756916</v>
+        <v>1116840.694629386</v>
       </c>
       <c r="J42">
-        <v>67.36573584236429</v>
+        <v>4841288.523710503</v>
       </c>
       <c r="K42">
-        <v>420.3765151784081</v>
+        <v>3984706.229836816</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1897,31 +1909,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>53.25455459125979</v>
+        <v>1116404.017188216</v>
       </c>
       <c r="G43">
-        <v>332.4626363888011</v>
+        <v>4841675.133634073</v>
       </c>
       <c r="H43">
-        <v>1842.267569209509</v>
+        <v>3986269.620886421</v>
       </c>
       <c r="I43">
-        <v>476.8945486459406</v>
+        <v>1116919.051897177</v>
       </c>
       <c r="J43">
-        <v>6.600728313578308</v>
+        <v>4841239.872008583</v>
       </c>
       <c r="K43">
-        <v>42.21969684869737</v>
+        <v>3984404.079398517</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1932,31 +1944,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>52.48857471067738</v>
+        <v>1116403.410221496</v>
       </c>
       <c r="G44">
-        <v>344.3600554733428</v>
+        <v>4841691.646416225</v>
       </c>
       <c r="H44">
-        <v>1850.686217353416</v>
+        <v>3986278.301910816</v>
       </c>
       <c r="I44">
-        <v>545.5295905859996</v>
+        <v>1116999.3386406</v>
       </c>
       <c r="J44">
-        <v>-54.16427921520739</v>
+        <v>4841191.220306663</v>
       </c>
       <c r="K44">
-        <v>-354.8964498326791</v>
+        <v>3984086.780299413</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1967,31 +1979,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>51.75471556574247</v>
+        <v>1116402.828707427</v>
       </c>
       <c r="G45">
-        <v>356.2574745578845</v>
+        <v>4841708.159198378</v>
       </c>
       <c r="H45">
-        <v>1858.868092673969</v>
+        <v>3986286.738783107</v>
       </c>
       <c r="I45">
-        <v>615.8547072907521</v>
+        <v>1117081.602371216</v>
       </c>
       <c r="J45">
-        <v>-114.9292867439934</v>
+        <v>4841142.568604744</v>
       </c>
       <c r="K45">
-        <v>-770.9719248657235</v>
+        <v>3983754.332539506</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2002,31 +2014,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>51.05079374318995</v>
+        <v>1116402.270915858</v>
       </c>
       <c r="G46">
-        <v>368.1548936424263</v>
+        <v>4841724.671980531</v>
       </c>
       <c r="H46">
-        <v>1866.826150026986</v>
+        <v>3986294.944861903</v>
       </c>
       <c r="I46">
-        <v>687.9115152964386</v>
+        <v>1117165.891770518</v>
       </c>
       <c r="J46">
-        <v>-175.6942942727793</v>
+        <v>4841093.916902823</v>
       </c>
       <c r="K46">
-        <v>-1206.006728250436</v>
+        <v>3983406.736118796</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2037,31 +2049,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>50.37482807407623</v>
+        <v>1116401.735276901</v>
       </c>
       <c r="G47">
-        <v>380.052312726968</v>
+        <v>4841741.184762685</v>
       </c>
       <c r="H47">
-        <v>1874.572309295854</v>
+        <v>3986302.932438582</v>
       </c>
       <c r="I47">
-        <v>761.7426559082172</v>
+        <v>1117252.256718733</v>
       </c>
       <c r="J47">
-        <v>-236.4593018015653</v>
+        <v>4841045.265200904</v>
       </c>
       <c r="K47">
-        <v>-1660.000859986814</v>
+        <v>3983043.991037283</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2072,31 +2084,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>49.72501617346065</v>
+        <v>1116401.220362335</v>
       </c>
       <c r="G48">
-        <v>391.9497318115097</v>
+        <v>4841757.697544837</v>
       </c>
       <c r="H48">
-        <v>1882.117562784042</v>
+        <v>3986310.712848035</v>
       </c>
       <c r="I48">
-        <v>837.3918204341564</v>
+        <v>1117340.748324344</v>
       </c>
       <c r="J48">
-        <v>-297.2243093303507</v>
+        <v>4840996.613498985</v>
       </c>
       <c r="K48">
-        <v>-2132.954320074856</v>
+        <v>3982666.097294966</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2107,31 +2119,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>49.09971422205773</v>
+        <v>1116400.72486959</v>
       </c>
       <c r="G49">
-        <v>403.8471508960515</v>
+        <v>4841774.21032699</v>
       </c>
       <c r="H49">
-        <v>1889.472069029794</v>
+        <v>3986318.296565402</v>
       </c>
       <c r="I49">
-        <v>914.9037760405927</v>
+        <v>1117431.418954332</v>
       </c>
       <c r="J49">
-        <v>-357.9893168591367</v>
+        <v>4840947.961797065</v>
       </c>
       <c r="K49">
-        <v>-2624.867108514568</v>
+        <v>3982273.054891846</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2142,31 +2154,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>48.49741947346448</v>
+        <v>1116400.24760788</v>
       </c>
       <c r="G50">
-        <v>415.7445699805932</v>
+        <v>4841790.723109144</v>
       </c>
       <c r="H50">
-        <v>1896.645235052303</v>
+        <v>3986325.693290882</v>
       </c>
       <c r="I50">
-        <v>994.3243922441453</v>
+        <v>1117524.322265168</v>
       </c>
       <c r="J50">
-        <v>-418.7543243879227</v>
+        <v>4840899.310095144</v>
       </c>
       <c r="K50">
-        <v>-3135.739225305947</v>
+        <v>3981864.863827922</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2177,31 +2189,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>47.91675506318972</v>
+        <v>1116399.787486171</v>
       </c>
       <c r="G51">
-        <v>427.6419890651349</v>
+        <v>4841807.235891297</v>
       </c>
       <c r="H51">
-        <v>1903.645788700084</v>
+        <v>3986332.912024336</v>
       </c>
       <c r="I51">
-        <v>1075.700668056083</v>
+        <v>1117619.513234564</v>
       </c>
       <c r="J51">
-        <v>-479.5193319167087</v>
+        <v>4840850.658393226</v>
       </c>
       <c r="K51">
-        <v>-3665.570670448993</v>
+        <v>3981441.524103196</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2212,31 +2224,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>47.35645676995198</v>
+        <v>1116399.343502686</v>
       </c>
       <c r="G52">
-        <v>439.5394081496766</v>
+        <v>4841823.748673449</v>
       </c>
       <c r="H52">
-        <v>1910.4818424974</v>
+        <v>3986339.961131125</v>
       </c>
       <c r="I52">
-        <v>1159.08075979509</v>
+        <v>1117717.048194007</v>
       </c>
       <c r="J52">
-        <v>-540.2843394454947</v>
+        <v>4840802.006691306</v>
       </c>
       <c r="K52">
-        <v>-4214.361443943706</v>
+        <v>3981003.035717666</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2247,31 +2259,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>46.81536143954443</v>
+        <v>1116398.914735735</v>
       </c>
       <c r="G53">
-        <v>451.4368272342183</v>
+        <v>4841840.261455603</v>
       </c>
       <c r="H53">
-        <v>1917.160950160159</v>
+        <v>3986346.848400384</v>
       </c>
       <c r="I53">
-        <v>1244.51400958489</v>
+        <v>1117816.984862095</v>
       </c>
       <c r="J53">
-        <v>-601.0493469742801</v>
+        <v>4840753.354989386</v>
       </c>
       <c r="K53">
-        <v>-4782.111545790081</v>
+        <v>3980549.398671332</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2282,31 +2294,3741 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>46.29239683005771</v>
+        <v>1116398.500335669</v>
       </c>
       <c r="G54">
-        <v>463.33424631876</v>
+        <v>4841856.774237756</v>
       </c>
       <c r="H54">
-        <v>1923.690156768648</v>
+        <v>3986353.58109676</v>
       </c>
       <c r="I54">
-        <v>1332.050974553617</v>
+        <v>1117919.382378696</v>
       </c>
       <c r="J54">
-        <v>-661.8143545030661</v>
+        <v>4840704.703287466</v>
       </c>
       <c r="K54">
-        <v>-5368.820975988128</v>
+        <v>3980080.612964196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55">
+        <v>152.142</v>
+      </c>
+      <c r="F55">
+        <v>1116577.23770223</v>
+      </c>
+      <c r="G55">
+        <v>4841129.897434171</v>
+      </c>
+      <c r="H55">
+        <v>3985232.01111937</v>
+      </c>
+      <c r="I55">
+        <v>1114860.538688333</v>
+      </c>
+      <c r="J55">
+        <v>4843227.362349122</v>
+      </c>
+      <c r="K55">
+        <v>3984366.10413483</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56">
+        <v>153.142</v>
+      </c>
+      <c r="F56">
+        <v>1116577.23770223</v>
+      </c>
+      <c r="G56">
+        <v>4841129.897434171</v>
+      </c>
+      <c r="H56">
+        <v>3985232.01111937</v>
+      </c>
+      <c r="I56">
+        <v>1114890.152663048</v>
+      </c>
+      <c r="J56">
+        <v>4843178.710719825</v>
+      </c>
+      <c r="K56">
+        <v>3984669.89980527</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>11</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57">
+        <v>154.142</v>
+      </c>
+      <c r="F57">
+        <v>1116577.23770223</v>
+      </c>
+      <c r="G57">
+        <v>4841129.897434171</v>
+      </c>
+      <c r="H57">
+        <v>3985232.01111937</v>
+      </c>
+      <c r="I57">
+        <v>1114920.495854647</v>
+      </c>
+      <c r="J57">
+        <v>4843130.059090526</v>
+      </c>
+      <c r="K57">
+        <v>3984958.546831033</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58">
+        <v>155.142</v>
+      </c>
+      <c r="F58">
+        <v>1116577.23770223</v>
+      </c>
+      <c r="G58">
+        <v>4841129.897434171</v>
+      </c>
+      <c r="H58">
+        <v>3985232.01111937</v>
+      </c>
+      <c r="I58">
+        <v>1114951.586219424</v>
+      </c>
+      <c r="J58">
+        <v>4843081.407461228</v>
+      </c>
+      <c r="K58">
+        <v>3985232.045212117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>11</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59">
+        <v>156.142</v>
+      </c>
+      <c r="F59">
+        <v>1116577.23770223</v>
+      </c>
+      <c r="G59">
+        <v>4841129.897434171</v>
+      </c>
+      <c r="H59">
+        <v>3985232.01111937</v>
+      </c>
+      <c r="I59">
+        <v>1114983.442155831</v>
+      </c>
+      <c r="J59">
+        <v>4843032.755831931</v>
+      </c>
+      <c r="K59">
+        <v>3985490.394948525</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60">
+        <v>157.142</v>
+      </c>
+      <c r="F60">
+        <v>1116577.23770223</v>
+      </c>
+      <c r="G60">
+        <v>4841129.897434171</v>
+      </c>
+      <c r="H60">
+        <v>3985232.01111937</v>
+      </c>
+      <c r="I60">
+        <v>1115016.082515364</v>
+      </c>
+      <c r="J60">
+        <v>4842984.104202633</v>
+      </c>
+      <c r="K60">
+        <v>3985733.596040256</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61">
+        <v>158.142</v>
+      </c>
+      <c r="F61">
+        <v>1116577.23770223</v>
+      </c>
+      <c r="G61">
+        <v>4841129.897434171</v>
+      </c>
+      <c r="H61">
+        <v>3985232.01111937</v>
+      </c>
+      <c r="I61">
+        <v>1115049.526613723</v>
+      </c>
+      <c r="J61">
+        <v>4842935.452573335</v>
+      </c>
+      <c r="K61">
+        <v>3985961.648487308</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62">
+        <v>159.142</v>
+      </c>
+      <c r="F62">
+        <v>1116577.23770223</v>
+      </c>
+      <c r="G62">
+        <v>4841129.897434171</v>
+      </c>
+      <c r="H62">
+        <v>3985232.01111937</v>
+      </c>
+      <c r="I62">
+        <v>1115083.794242236</v>
+      </c>
+      <c r="J62">
+        <v>4842886.800944037</v>
+      </c>
+      <c r="K62">
+        <v>3986174.552289683</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63">
+        <v>160.142</v>
+      </c>
+      <c r="F63">
+        <v>1116577.23770223</v>
+      </c>
+      <c r="G63">
+        <v>4841146.410271577</v>
+      </c>
+      <c r="H63">
+        <v>3985232.01111937</v>
+      </c>
+      <c r="I63">
+        <v>1115118.905679575</v>
+      </c>
+      <c r="J63">
+        <v>4842838.14931474</v>
+      </c>
+      <c r="K63">
+        <v>3986372.307447381</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64">
+        <v>161.142</v>
+      </c>
+      <c r="F64">
+        <v>1116528.557193662</v>
+      </c>
+      <c r="G64">
+        <v>4841162.923108981</v>
+      </c>
+      <c r="H64">
+        <v>3985431.265710276</v>
+      </c>
+      <c r="I64">
+        <v>1115154.881703757</v>
+      </c>
+      <c r="J64">
+        <v>4842789.497685442</v>
+      </c>
+      <c r="K64">
+        <v>3986554.913960401</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65">
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65">
+        <v>162.142</v>
+      </c>
+      <c r="F65">
+        <v>1116499.959836956</v>
+      </c>
+      <c r="G65">
+        <v>4841179.435946386</v>
+      </c>
+      <c r="H65">
+        <v>3985549.951934887</v>
+      </c>
+      <c r="I65">
+        <v>1115191.743604437</v>
+      </c>
+      <c r="J65">
+        <v>4842740.846056144</v>
+      </c>
+      <c r="K65">
+        <v>3986722.371828744</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66">
+        <v>11</v>
+      </c>
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66">
+        <v>163.142</v>
+      </c>
+      <c r="F66">
+        <v>1116481.907087395</v>
+      </c>
+      <c r="G66">
+        <v>4841195.948783792</v>
+      </c>
+      <c r="H66">
+        <v>3985634.76895792</v>
+      </c>
+      <c r="I66">
+        <v>1115229.513195509</v>
+      </c>
+      <c r="J66">
+        <v>4842692.194426846</v>
+      </c>
+      <c r="K66">
+        <v>3986874.681052409</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67">
+        <v>164.142</v>
+      </c>
+      <c r="F67">
+        <v>1116469.317173131</v>
+      </c>
+      <c r="G67">
+        <v>4841212.461621196</v>
+      </c>
+      <c r="H67">
+        <v>3985700.815928316</v>
+      </c>
+      <c r="I67">
+        <v>1115268.212828013</v>
+      </c>
+      <c r="J67">
+        <v>4842643.542797548</v>
+      </c>
+      <c r="K67">
+        <v>3987011.841631396</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68">
+        <v>11</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68">
+        <v>165.142</v>
+      </c>
+      <c r="F68">
+        <v>1116459.924720066</v>
+      </c>
+      <c r="G68">
+        <v>4841228.974458601</v>
+      </c>
+      <c r="H68">
+        <v>3985754.91352014</v>
+      </c>
+      <c r="I68">
+        <v>1115307.865403365</v>
+      </c>
+      <c r="J68">
+        <v>4842594.891168251</v>
+      </c>
+      <c r="K68">
+        <v>3987133.853565706</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69">
+        <v>11</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69">
+        <v>166.142</v>
+      </c>
+      <c r="F69">
+        <v>1116452.581133386</v>
+      </c>
+      <c r="G69">
+        <v>4841245.487296006</v>
+      </c>
+      <c r="H69">
+        <v>3985800.730231482</v>
+      </c>
+      <c r="I69">
+        <v>1115348.494386906</v>
+      </c>
+      <c r="J69">
+        <v>4842546.239538952</v>
+      </c>
+      <c r="K69">
+        <v>3987240.716855339</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70">
+        <v>11</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70">
+        <v>167.142</v>
+      </c>
+      <c r="F70">
+        <v>1116446.639637058</v>
+      </c>
+      <c r="G70">
+        <v>4841262.000133411</v>
+      </c>
+      <c r="H70">
+        <v>3985840.467884105</v>
+      </c>
+      <c r="I70">
+        <v>1115390.123821788</v>
+      </c>
+      <c r="J70">
+        <v>4842497.587909655</v>
+      </c>
+      <c r="K70">
+        <v>3987332.431500294</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71">
+        <v>11</v>
+      </c>
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71">
+        <v>168.142</v>
+      </c>
+      <c r="F71">
+        <v>1116441.706078031</v>
+      </c>
+      <c r="G71">
+        <v>4841278.512970816</v>
+      </c>
+      <c r="H71">
+        <v>3985875.552299183</v>
+      </c>
+      <c r="I71">
+        <v>1115432.778343206</v>
+      </c>
+      <c r="J71">
+        <v>4842448.936280357</v>
+      </c>
+      <c r="K71">
+        <v>3987408.997500571</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72">
+        <v>11</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72">
+        <v>169.142</v>
+      </c>
+      <c r="F72">
+        <v>1116437.525257961</v>
+      </c>
+      <c r="G72">
+        <v>4841295.025808221</v>
+      </c>
+      <c r="H72">
+        <v>3985906.959910675</v>
+      </c>
+      <c r="I72">
+        <v>1115476.483192972</v>
+      </c>
+      <c r="J72">
+        <v>4842400.28465106</v>
+      </c>
+      <c r="K72">
+        <v>3987470.414856172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73">
+        <v>11</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73">
+        <v>170.142</v>
+      </c>
+      <c r="F73">
+        <v>1116433.923889353</v>
+      </c>
+      <c r="G73">
+        <v>4841311.538645626</v>
+      </c>
+      <c r="H73">
+        <v>3985935.388787312</v>
+      </c>
+      <c r="I73">
+        <v>1115521.264234456</v>
+      </c>
+      <c r="J73">
+        <v>4842351.633021761</v>
+      </c>
+      <c r="K73">
+        <v>3987516.683567094</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74">
+        <v>11</v>
+      </c>
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74">
+        <v>171.142</v>
+      </c>
+      <c r="F74">
+        <v>1116430.779708469</v>
+      </c>
+      <c r="G74">
+        <v>4841328.051483031</v>
+      </c>
+      <c r="H74">
+        <v>3985961.355320049</v>
+      </c>
+      <c r="I74">
+        <v>1115567.147967889</v>
+      </c>
+      <c r="J74">
+        <v>4842302.981392463</v>
+      </c>
+      <c r="K74">
+        <v>3987547.803633339</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75">
+        <v>11</v>
+      </c>
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75">
+        <v>172.142</v>
+      </c>
+      <c r="F75">
+        <v>1116428.003693919</v>
+      </c>
+      <c r="G75">
+        <v>4841344.564320435</v>
+      </c>
+      <c r="H75">
+        <v>3985985.252264017</v>
+      </c>
+      <c r="I75">
+        <v>1115614.161546045</v>
+      </c>
+      <c r="J75">
+        <v>4842254.329763166</v>
+      </c>
+      <c r="K75">
+        <v>3987563.775054907</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76">
+        <v>11</v>
+      </c>
+      <c r="B76" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76">
+        <v>173.142</v>
+      </c>
+      <c r="F76">
+        <v>1116425.52930189</v>
+      </c>
+      <c r="G76">
+        <v>4841361.07715784</v>
+      </c>
+      <c r="H76">
+        <v>3986007.385306298</v>
+      </c>
+      <c r="I76">
+        <v>1115662.332790311</v>
+      </c>
+      <c r="J76">
+        <v>4842205.678133868</v>
+      </c>
+      <c r="K76">
+        <v>3987564.597831797</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77">
+        <v>11</v>
+      </c>
+      <c r="B77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77">
+        <v>174.142</v>
+      </c>
+      <c r="F77">
+        <v>1116423.305669874</v>
+      </c>
+      <c r="G77">
+        <v>4841377.589995245</v>
+      </c>
+      <c r="H77">
+        <v>3986027.997040057</v>
+      </c>
+      <c r="I77">
+        <v>1115711.690207151</v>
+      </c>
+      <c r="J77">
+        <v>4842157.02650457</v>
+      </c>
+      <c r="K77">
+        <v>3987550.271964009</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78">
+        <v>11</v>
+      </c>
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78">
+        <v>175.142</v>
+      </c>
+      <c r="F78">
+        <v>1116421.29317075</v>
+      </c>
+      <c r="G78">
+        <v>4841394.10283265</v>
+      </c>
+      <c r="H78">
+        <v>3986047.283215887</v>
+      </c>
+      <c r="I78">
+        <v>1115762.263004973</v>
+      </c>
+      <c r="J78">
+        <v>4842108.374875272</v>
+      </c>
+      <c r="K78">
+        <v>3987520.797451544</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79">
+        <v>11</v>
+      </c>
+      <c r="B79" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79">
+        <v>176.142</v>
+      </c>
+      <c r="F79">
+        <v>1116419.460414521</v>
+      </c>
+      <c r="G79">
+        <v>4841410.615670055</v>
+      </c>
+      <c r="H79">
+        <v>3986065.40407581</v>
+      </c>
+      <c r="I79">
+        <v>1115814.081111415</v>
+      </c>
+      <c r="J79">
+        <v>4842059.723245975</v>
+      </c>
+      <c r="K79">
+        <v>3987476.174294402</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80">
+        <v>11</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80">
+        <v>177.142</v>
+      </c>
+      <c r="F80">
+        <v>1116417.7821723</v>
+      </c>
+      <c r="G80">
+        <v>4841427.12850746</v>
+      </c>
+      <c r="H80">
+        <v>3986082.492453979</v>
+      </c>
+      <c r="I80">
+        <v>1115867.175191056</v>
+      </c>
+      <c r="J80">
+        <v>4842011.071616676</v>
+      </c>
+      <c r="K80">
+        <v>3987416.402492582</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81">
+        <v>11</v>
+      </c>
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81">
+        <v>178.142</v>
+      </c>
+      <c r="F81">
+        <v>1116416.23790534</v>
+      </c>
+      <c r="G81">
+        <v>4841443.641344865</v>
+      </c>
+      <c r="H81">
+        <v>3986098.65969144</v>
+      </c>
+      <c r="I81">
+        <v>1115921.576663563</v>
+      </c>
+      <c r="J81">
+        <v>4841962.419987379</v>
+      </c>
+      <c r="K81">
+        <v>3987341.482046084</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82">
+        <v>11</v>
+      </c>
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82">
+        <v>179.142</v>
+      </c>
+      <c r="F82">
+        <v>1116414.810701359</v>
+      </c>
+      <c r="G82">
+        <v>4841460.15418227</v>
+      </c>
+      <c r="H82">
+        <v>3986114.000036695</v>
+      </c>
+      <c r="I82">
+        <v>1115977.317722281</v>
+      </c>
+      <c r="J82">
+        <v>4841913.768358081</v>
+      </c>
+      <c r="K82">
+        <v>3987251.41295491</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83">
+        <v>11</v>
+      </c>
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83">
+        <v>180.142</v>
+      </c>
+      <c r="F83">
+        <v>1116413.486491357</v>
+      </c>
+      <c r="G83">
+        <v>4841476.667019675</v>
+      </c>
+      <c r="H83">
+        <v>3986128.593974657</v>
+      </c>
+      <c r="I83">
+        <v>1116034.43135329</v>
+      </c>
+      <c r="J83">
+        <v>4841865.116728783</v>
+      </c>
+      <c r="K83">
+        <v>3987146.195219057</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84">
+        <v>11</v>
+      </c>
+      <c r="B84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84">
+        <v>181.142</v>
+      </c>
+      <c r="F84">
+        <v>1116412.253463562</v>
+      </c>
+      <c r="G84">
+        <v>4841493.17985708</v>
+      </c>
+      <c r="H84">
+        <v>3986142.510782673</v>
+      </c>
+      <c r="I84">
+        <v>1116092.951354919</v>
+      </c>
+      <c r="J84">
+        <v>4841816.465099485</v>
+      </c>
+      <c r="K84">
+        <v>3987025.828838527</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85">
+        <v>11</v>
+      </c>
+      <c r="B85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85">
+        <v>182.142</v>
+      </c>
+      <c r="F85">
+        <v>1116411.101618475</v>
+      </c>
+      <c r="G85">
+        <v>4841509.692694485</v>
+      </c>
+      <c r="H85">
+        <v>3986155.810519418</v>
+      </c>
+      <c r="I85">
+        <v>1116152.912357751</v>
+      </c>
+      <c r="J85">
+        <v>4841767.813470187</v>
+      </c>
+      <c r="K85">
+        <v>3986890.313813319</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86">
+        <v>11</v>
+      </c>
+      <c r="B86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86">
+        <v>183.142</v>
+      </c>
+      <c r="F86">
+        <v>1116410.022426559</v>
+      </c>
+      <c r="G86">
+        <v>4841526.20553189</v>
+      </c>
+      <c r="H86">
+        <v>3986168.545591289</v>
+      </c>
+      <c r="I86">
+        <v>1116214.349845114</v>
+      </c>
+      <c r="J86">
+        <v>4841719.16184089</v>
+      </c>
+      <c r="K86">
+        <v>3986739.650143434</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87">
+        <v>11</v>
+      </c>
+      <c r="B87" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87">
+        <v>184.142</v>
+      </c>
+      <c r="F87">
+        <v>1116409.008561738</v>
+      </c>
+      <c r="G87">
+        <v>4841542.718369295</v>
+      </c>
+      <c r="H87">
+        <v>3986180.76199962</v>
+      </c>
+      <c r="I87">
+        <v>1116277.300174082</v>
+      </c>
+      <c r="J87">
+        <v>4841670.510211592</v>
+      </c>
+      <c r="K87">
+        <v>3986573.837828872</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88">
+        <v>11</v>
+      </c>
+      <c r="B88" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88">
+        <v>185.142</v>
+      </c>
+      <c r="F88">
+        <v>1116408.05369163</v>
+      </c>
+      <c r="G88">
+        <v>4841559.231206699</v>
+      </c>
+      <c r="H88">
+        <v>3986192.50034371</v>
+      </c>
+      <c r="I88">
+        <v>1116341.800596988</v>
+      </c>
+      <c r="J88">
+        <v>4841621.858582294</v>
+      </c>
+      <c r="K88">
+        <v>3986392.876869631</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89">
+        <v>11</v>
+      </c>
+      <c r="B89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89">
+        <v>186.142</v>
+      </c>
+      <c r="F89">
+        <v>1116407.152310794</v>
+      </c>
+      <c r="G89">
+        <v>4841575.744044105</v>
+      </c>
+      <c r="H89">
+        <v>3986203.796634889</v>
+      </c>
+      <c r="I89">
+        <v>1116407.889283468</v>
+      </c>
+      <c r="J89">
+        <v>4841573.206952996</v>
+      </c>
+      <c r="K89">
+        <v>3986196.767265714</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90">
+        <v>11</v>
+      </c>
+      <c r="B90" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90">
+        <v>187.142</v>
+      </c>
+      <c r="F90">
+        <v>1116406.299606925</v>
+      </c>
+      <c r="G90">
+        <v>4841592.25688151</v>
+      </c>
+      <c r="H90">
+        <v>3986214.682962788</v>
+      </c>
+      <c r="I90">
+        <v>1116475.605343052</v>
+      </c>
+      <c r="J90">
+        <v>4841524.555323699</v>
+      </c>
+      <c r="K90">
+        <v>3985985.509017119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91">
+        <v>11</v>
+      </c>
+      <c r="B91" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91">
+        <v>188.142</v>
+      </c>
+      <c r="F91">
+        <v>1116405.491352593</v>
+      </c>
+      <c r="G91">
+        <v>4841608.769718914</v>
+      </c>
+      <c r="H91">
+        <v>3986225.188044887</v>
+      </c>
+      <c r="I91">
+        <v>1116544.988848307</v>
+      </c>
+      <c r="J91">
+        <v>4841475.903694401</v>
+      </c>
+      <c r="K91">
+        <v>3985759.102123847</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92">
+        <v>11</v>
+      </c>
+      <c r="B92" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92">
+        <v>189.142</v>
+      </c>
+      <c r="F92">
+        <v>1116404.723816944</v>
+      </c>
+      <c r="G92">
+        <v>4841625.282556319</v>
+      </c>
+      <c r="H92">
+        <v>3986235.337683053</v>
+      </c>
+      <c r="I92">
+        <v>1116616.080858546</v>
+      </c>
+      <c r="J92">
+        <v>4841427.252065102</v>
+      </c>
+      <c r="K92">
+        <v>3985517.546585897</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93">
+        <v>11</v>
+      </c>
+      <c r="B93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93">
+        <v>190.142</v>
+      </c>
+      <c r="F93">
+        <v>1116403.99369316</v>
+      </c>
+      <c r="G93">
+        <v>4841641.795393724</v>
+      </c>
+      <c r="H93">
+        <v>3986245.155145343</v>
+      </c>
+      <c r="I93">
+        <v>1116688.923444134</v>
+      </c>
+      <c r="J93">
+        <v>4841378.600435805</v>
+      </c>
+      <c r="K93">
+        <v>3985260.842403269</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94">
+        <v>11</v>
+      </c>
+      <c r="B94" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94">
+        <v>191.142</v>
+      </c>
+      <c r="F94">
+        <v>1116403.298038463</v>
+      </c>
+      <c r="G94">
+        <v>4841658.308231128</v>
+      </c>
+      <c r="H94">
+        <v>3986254.66148728</v>
+      </c>
+      <c r="I94">
+        <v>1116763.559711379</v>
+      </c>
+      <c r="J94">
+        <v>4841329.948806507</v>
+      </c>
+      <c r="K94">
+        <v>3984988.989575964</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95">
+        <v>11</v>
+      </c>
+      <c r="B95" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" t="s">
+        <v>16</v>
+      </c>
+      <c r="E95">
+        <v>192.142</v>
+      </c>
+      <c r="F95">
+        <v>1116402.634224169</v>
+      </c>
+      <c r="G95">
+        <v>4841674.821068534</v>
+      </c>
+      <c r="H95">
+        <v>3986263.875823778</v>
+      </c>
+      <c r="I95">
+        <v>1116840.033828039</v>
+      </c>
+      <c r="J95">
+        <v>4841281.29717721</v>
+      </c>
+      <c r="K95">
+        <v>3984701.988103981</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96">
+        <v>11</v>
+      </c>
+      <c r="B96" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96">
+        <v>193.142</v>
+      </c>
+      <c r="F96">
+        <v>1116401.999893878</v>
+      </c>
+      <c r="G96">
+        <v>4841691.333905939</v>
+      </c>
+      <c r="H96">
+        <v>3986272.815560523</v>
+      </c>
+      <c r="I96">
+        <v>1116918.391049468</v>
+      </c>
+      <c r="J96">
+        <v>4841232.645547911</v>
+      </c>
+      <c r="K96">
+        <v>3984399.837987321</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97">
+        <v>11</v>
+      </c>
+      <c r="B97" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97">
+        <v>194.142</v>
+      </c>
+      <c r="F97">
+        <v>1116401.392928255</v>
+      </c>
+      <c r="G97">
+        <v>4841707.846743343</v>
+      </c>
+      <c r="H97">
+        <v>3986281.496591875</v>
+      </c>
+      <c r="I97">
+        <v>1116998.677745388</v>
+      </c>
+      <c r="J97">
+        <v>4841183.993918614</v>
+      </c>
+      <c r="K97">
+        <v>3984082.539225983</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98">
+        <v>11</v>
+      </c>
+      <c r="B98" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
+        <v>16</v>
+      </c>
+      <c r="E98">
+        <v>195.142</v>
+      </c>
+      <c r="F98">
+        <v>1116400.811415237</v>
+      </c>
+      <c r="G98">
+        <v>4841724.359580749</v>
+      </c>
+      <c r="H98">
+        <v>3986289.933470928</v>
+      </c>
+      <c r="I98">
+        <v>1117080.941427331</v>
+      </c>
+      <c r="J98">
+        <v>4841135.342289316</v>
+      </c>
+      <c r="K98">
+        <v>3983750.091819969</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99">
+        <v>11</v>
+      </c>
+      <c r="B99" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" t="s">
+        <v>16</v>
+      </c>
+      <c r="E99">
+        <v>196.142</v>
+      </c>
+      <c r="F99">
+        <v>1116400.253624676</v>
+      </c>
+      <c r="G99">
+        <v>4841740.872418153</v>
+      </c>
+      <c r="H99">
+        <v>3986298.1395563</v>
+      </c>
+      <c r="I99">
+        <v>1117165.230776762</v>
+      </c>
+      <c r="J99">
+        <v>4841086.690660017</v>
+      </c>
+      <c r="K99">
+        <v>3983402.495769276</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100">
+        <v>11</v>
+      </c>
+      <c r="B100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100">
+        <v>197.142</v>
+      </c>
+      <c r="F100">
+        <v>1116399.717986687</v>
+      </c>
+      <c r="G100">
+        <v>4841757.385255558</v>
+      </c>
+      <c r="H100">
+        <v>3986306.127139381</v>
+      </c>
+      <c r="I100">
+        <v>1117251.595673878</v>
+      </c>
+      <c r="J100">
+        <v>4841038.03903072</v>
+      </c>
+      <c r="K100">
+        <v>3983039.751073906</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101">
+        <v>11</v>
+      </c>
+      <c r="B101" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101">
+        <v>198.142</v>
+      </c>
+      <c r="F101">
+        <v>1116399.203073052</v>
+      </c>
+      <c r="G101">
+        <v>4841773.898092964</v>
+      </c>
+      <c r="H101">
+        <v>3986313.907555069</v>
+      </c>
+      <c r="I101">
+        <v>1117340.08722713</v>
+      </c>
+      <c r="J101">
+        <v>4840989.387401422</v>
+      </c>
+      <c r="K101">
+        <v>3982661.857733858</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102">
+        <v>11</v>
+      </c>
+      <c r="B102" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" t="s">
+        <v>16</v>
+      </c>
+      <c r="E102">
+        <v>199.142</v>
+      </c>
+      <c r="F102">
+        <v>1116398.707581201</v>
+      </c>
+      <c r="G102">
+        <v>4841790.410930368</v>
+      </c>
+      <c r="H102">
+        <v>3986321.491278514</v>
+      </c>
+      <c r="I102">
+        <v>1117430.757803471</v>
+      </c>
+      <c r="J102">
+        <v>4840940.735772124</v>
+      </c>
+      <c r="K102">
+        <v>3982268.815749133</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103">
+        <v>11</v>
+      </c>
+      <c r="B103" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103">
+        <v>200.142</v>
+      </c>
+      <c r="F103">
+        <v>1116398.230320354</v>
+      </c>
+      <c r="G103">
+        <v>4841806.923767773</v>
+      </c>
+      <c r="H103">
+        <v>3986328.888009922</v>
+      </c>
+      <c r="I103">
+        <v>1117523.661059339</v>
+      </c>
+      <c r="J103">
+        <v>4840892.084142826</v>
+      </c>
+      <c r="K103">
+        <v>3981860.62511973</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104">
+        <v>11</v>
+      </c>
+      <c r="B104" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" t="s">
+        <v>16</v>
+      </c>
+      <c r="E104">
+        <v>201.142</v>
+      </c>
+      <c r="F104">
+        <v>1116397.770199476</v>
+      </c>
+      <c r="G104">
+        <v>4841823.436605179</v>
+      </c>
+      <c r="H104">
+        <v>3986336.106749162</v>
+      </c>
+      <c r="I104">
+        <v>1117618.851972413</v>
+      </c>
+      <c r="J104">
+        <v>4840843.432513529</v>
+      </c>
+      <c r="K104">
+        <v>3981437.28584565</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105">
+        <v>11</v>
+      </c>
+      <c r="B105" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" t="s">
+        <v>16</v>
+      </c>
+      <c r="E105">
+        <v>202.142</v>
+      </c>
+      <c r="F105">
+        <v>1116397.326216793</v>
+      </c>
+      <c r="G105">
+        <v>4841839.949442583</v>
+      </c>
+      <c r="H105">
+        <v>3986343.155861599</v>
+      </c>
+      <c r="I105">
+        <v>1117716.386874147</v>
+      </c>
+      <c r="J105">
+        <v>4840794.780884231</v>
+      </c>
+      <c r="K105">
+        <v>3980998.797926893</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106">
+        <v>11</v>
+      </c>
+      <c r="B106" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" t="s">
+        <v>16</v>
+      </c>
+      <c r="E106">
+        <v>203.142</v>
+      </c>
+      <c r="F106">
+        <v>1116396.897450618</v>
+      </c>
+      <c r="G106">
+        <v>4841856.462279988</v>
+      </c>
+      <c r="H106">
+        <v>3986350.043136377</v>
+      </c>
+      <c r="I106">
+        <v>1117816.323483107</v>
+      </c>
+      <c r="J106">
+        <v>4840746.129254933</v>
+      </c>
+      <c r="K106">
+        <v>3980545.161363457</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107">
+        <v>11</v>
+      </c>
+      <c r="B107" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" t="s">
+        <v>16</v>
+      </c>
+      <c r="E107">
+        <v>204.142</v>
+      </c>
+      <c r="F107">
+        <v>1116396.4830513</v>
+      </c>
+      <c r="G107">
+        <v>4841872.975117394</v>
+      </c>
+      <c r="H107">
+        <v>3986356.77583815</v>
+      </c>
+      <c r="I107">
+        <v>1117918.720939122</v>
+      </c>
+      <c r="J107">
+        <v>4840697.477625635</v>
+      </c>
+      <c r="K107">
+        <v>3980076.376155345</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>11</v>
+      </c>
+      <c r="B108" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108">
+        <v>152.142</v>
+      </c>
+      <c r="F108">
+        <v>1116578.951539652</v>
+      </c>
+      <c r="G108">
+        <v>4841124.166202461</v>
+      </c>
+      <c r="H108">
+        <v>3985224.415530215</v>
+      </c>
+      <c r="I108">
+        <v>1114861.198479073</v>
+      </c>
+      <c r="J108">
+        <v>4843228.563430412</v>
+      </c>
+      <c r="K108">
+        <v>3984361.903850538</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>11</v>
+      </c>
+      <c r="B109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109">
+        <v>153.142</v>
+      </c>
+      <c r="F109">
+        <v>1116578.951539652</v>
+      </c>
+      <c r="G109">
+        <v>4841124.166202461</v>
+      </c>
+      <c r="H109">
+        <v>3985224.415530215</v>
+      </c>
+      <c r="I109">
+        <v>1114890.812471315</v>
+      </c>
+      <c r="J109">
+        <v>4843179.911789049</v>
+      </c>
+      <c r="K109">
+        <v>3984665.699200719</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>11</v>
+      </c>
+      <c r="B110" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110">
+        <v>154.142</v>
+      </c>
+      <c r="F110">
+        <v>1116578.951539652</v>
+      </c>
+      <c r="G110">
+        <v>4841124.166202461</v>
+      </c>
+      <c r="H110">
+        <v>3985224.415530215</v>
+      </c>
+      <c r="I110">
+        <v>1114921.155680871</v>
+      </c>
+      <c r="J110">
+        <v>4843131.260147685</v>
+      </c>
+      <c r="K110">
+        <v>3984954.345922193</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>11</v>
+      </c>
+      <c r="B111" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111">
+        <v>155.142</v>
+      </c>
+      <c r="F111">
+        <v>1116578.951539652</v>
+      </c>
+      <c r="G111">
+        <v>4841124.166202461</v>
+      </c>
+      <c r="H111">
+        <v>3985224.415530215</v>
+      </c>
+      <c r="I111">
+        <v>1114952.246064047</v>
+      </c>
+      <c r="J111">
+        <v>4843082.608506323</v>
+      </c>
+      <c r="K111">
+        <v>3985227.844014958</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>11</v>
+      </c>
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112">
+        <v>156.142</v>
+      </c>
+      <c r="F112">
+        <v>1116578.951539652</v>
+      </c>
+      <c r="G112">
+        <v>4841124.166202461</v>
+      </c>
+      <c r="H112">
+        <v>3985224.415530215</v>
+      </c>
+      <c r="I112">
+        <v>1114984.102019307</v>
+      </c>
+      <c r="J112">
+        <v>4843033.95686496</v>
+      </c>
+      <c r="K112">
+        <v>3985486.193479016</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>11</v>
+      </c>
+      <c r="B113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113">
+        <v>157.142</v>
+      </c>
+      <c r="F113">
+        <v>1116578.951539652</v>
+      </c>
+      <c r="G113">
+        <v>4841124.166202461</v>
+      </c>
+      <c r="H113">
+        <v>3985224.415530215</v>
+      </c>
+      <c r="I113">
+        <v>1115016.742398158</v>
+      </c>
+      <c r="J113">
+        <v>4842985.305223597</v>
+      </c>
+      <c r="K113">
+        <v>3985729.394314365</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>11</v>
+      </c>
+      <c r="B114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114">
+        <v>158.142</v>
+      </c>
+      <c r="F114">
+        <v>1116578.951539652</v>
+      </c>
+      <c r="G114">
+        <v>4841124.166202461</v>
+      </c>
+      <c r="H114">
+        <v>3985224.415530215</v>
+      </c>
+      <c r="I114">
+        <v>1115050.186516309</v>
+      </c>
+      <c r="J114">
+        <v>4842936.653582233</v>
+      </c>
+      <c r="K114">
+        <v>3985957.446521007</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>11</v>
+      </c>
+      <c r="B115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115">
+        <v>159.142</v>
+      </c>
+      <c r="F115">
+        <v>1116578.951539652</v>
+      </c>
+      <c r="G115">
+        <v>4841124.166202461</v>
+      </c>
+      <c r="H115">
+        <v>3985224.415530215</v>
+      </c>
+      <c r="I115">
+        <v>1115084.454165102</v>
+      </c>
+      <c r="J115">
+        <v>4842888.001940871</v>
+      </c>
+      <c r="K115">
+        <v>3986170.350098941</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>11</v>
+      </c>
+      <c r="B116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116">
+        <v>160.142</v>
+      </c>
+      <c r="F116">
+        <v>1116578.951539652</v>
+      </c>
+      <c r="G116">
+        <v>4841140.679020317</v>
+      </c>
+      <c r="H116">
+        <v>3985224.415530215</v>
+      </c>
+      <c r="I116">
+        <v>1115119.565623221</v>
+      </c>
+      <c r="J116">
+        <v>4842839.350299507</v>
+      </c>
+      <c r="K116">
+        <v>3986368.105048167</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>11</v>
+      </c>
+      <c r="B117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117">
+        <v>161.142</v>
+      </c>
+      <c r="F117">
+        <v>1116530.270956364</v>
+      </c>
+      <c r="G117">
+        <v>4841157.191838173</v>
+      </c>
+      <c r="H117">
+        <v>3985423.669741355</v>
+      </c>
+      <c r="I117">
+        <v>1115155.541668694</v>
+      </c>
+      <c r="J117">
+        <v>4842790.698658145</v>
+      </c>
+      <c r="K117">
+        <v>3986550.711368685</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>11</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118">
+        <v>162.142</v>
+      </c>
+      <c r="F118">
+        <v>1116501.673555764</v>
+      </c>
+      <c r="G118">
+        <v>4841173.704656029</v>
+      </c>
+      <c r="H118">
+        <v>3985542.355739757</v>
+      </c>
+      <c r="I118">
+        <v>1115192.403591189</v>
+      </c>
+      <c r="J118">
+        <v>4842742.047016781</v>
+      </c>
+      <c r="K118">
+        <v>3986718.169060495</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>11</v>
+      </c>
+      <c r="B119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119">
+        <v>163.142</v>
+      </c>
+      <c r="F119">
+        <v>1116483.620778493</v>
+      </c>
+      <c r="G119">
+        <v>4841190.217473886</v>
+      </c>
+      <c r="H119">
+        <v>3985627.172601135</v>
+      </c>
+      <c r="I119">
+        <v>1115230.173204614</v>
+      </c>
+      <c r="J119">
+        <v>4842693.395375418</v>
+      </c>
+      <c r="K119">
+        <v>3986870.478123596</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>11</v>
+      </c>
+      <c r="B120" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120">
+        <v>164.142</v>
+      </c>
+      <c r="F120">
+        <v>1116471.030844906</v>
+      </c>
+      <c r="G120">
+        <v>4841206.730291741</v>
+      </c>
+      <c r="H120">
+        <v>3985693.21944565</v>
+      </c>
+      <c r="I120">
+        <v>1115268.872860021</v>
+      </c>
+      <c r="J120">
+        <v>4842644.743734056</v>
+      </c>
+      <c r="K120">
+        <v>3987007.638557991</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>11</v>
+      </c>
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121">
+        <v>165.142</v>
+      </c>
+      <c r="F121">
+        <v>1116461.638377424</v>
+      </c>
+      <c r="G121">
+        <v>4841223.243109598</v>
+      </c>
+      <c r="H121">
+        <v>3985747.316934368</v>
+      </c>
+      <c r="I121">
+        <v>1115308.52545884</v>
+      </c>
+      <c r="J121">
+        <v>4842596.092092693</v>
+      </c>
+      <c r="K121">
+        <v>3987129.650363677</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>11</v>
+      </c>
+      <c r="B122" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122">
+        <v>166.142</v>
+      </c>
+      <c r="F122">
+        <v>1116454.294779472</v>
+      </c>
+      <c r="G122">
+        <v>4841239.755927453</v>
+      </c>
+      <c r="H122">
+        <v>3985793.133558386</v>
+      </c>
+      <c r="I122">
+        <v>1115349.154466425</v>
+      </c>
+      <c r="J122">
+        <v>4842547.44045133</v>
+      </c>
+      <c r="K122">
+        <v>3987236.513540655</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>11</v>
+      </c>
+      <c r="B123" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123">
+        <v>167.142</v>
+      </c>
+      <c r="F123">
+        <v>1116448.353274024</v>
+      </c>
+      <c r="G123">
+        <v>4841256.268745309</v>
+      </c>
+      <c r="H123">
+        <v>3985832.871135271</v>
+      </c>
+      <c r="I123">
+        <v>1115390.783925944</v>
+      </c>
+      <c r="J123">
+        <v>4842498.788809966</v>
+      </c>
+      <c r="K123">
+        <v>3987328.228088925</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>11</v>
+      </c>
+      <c r="B124" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" t="s">
+        <v>17</v>
+      </c>
+      <c r="E124">
+        <v>168.142</v>
+      </c>
+      <c r="F124">
+        <v>1116443.419707425</v>
+      </c>
+      <c r="G124">
+        <v>4841272.781563166</v>
+      </c>
+      <c r="H124">
+        <v>3985867.95548348</v>
+      </c>
+      <c r="I124">
+        <v>1115433.438472606</v>
+      </c>
+      <c r="J124">
+        <v>4842450.137168604</v>
+      </c>
+      <c r="K124">
+        <v>3987404.794008488</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>11</v>
+      </c>
+      <c r="B125" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" t="s">
+        <v>17</v>
+      </c>
+      <c r="E125">
+        <v>169.142</v>
+      </c>
+      <c r="F125">
+        <v>1116439.238880938</v>
+      </c>
+      <c r="G125">
+        <v>4841289.294381021</v>
+      </c>
+      <c r="H125">
+        <v>3985899.363035113</v>
+      </c>
+      <c r="I125">
+        <v>1115477.143348237</v>
+      </c>
+      <c r="J125">
+        <v>4842401.485527241</v>
+      </c>
+      <c r="K125">
+        <v>3987466.211299342</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>11</v>
+      </c>
+      <c r="B126" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" t="s">
+        <v>17</v>
+      </c>
+      <c r="E126">
+        <v>170.142</v>
+      </c>
+      <c r="F126">
+        <v>1116435.637506802</v>
+      </c>
+      <c r="G126">
+        <v>4841305.807198877</v>
+      </c>
+      <c r="H126">
+        <v>3985927.791857565</v>
+      </c>
+      <c r="I126">
+        <v>1115521.924416223</v>
+      </c>
+      <c r="J126">
+        <v>4842352.833885877</v>
+      </c>
+      <c r="K126">
+        <v>3987512.479961489</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>11</v>
+      </c>
+      <c r="B127" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" t="s">
+        <v>17</v>
+      </c>
+      <c r="E127">
+        <v>171.142</v>
+      </c>
+      <c r="F127">
+        <v>1116432.493321092</v>
+      </c>
+      <c r="G127">
+        <v>4841322.320016733</v>
+      </c>
+      <c r="H127">
+        <v>3985953.758340812</v>
+      </c>
+      <c r="I127">
+        <v>1115567.80817681</v>
+      </c>
+      <c r="J127">
+        <v>4842304.182244514</v>
+      </c>
+      <c r="K127">
+        <v>3987543.599994927</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>11</v>
+      </c>
+      <c r="B128" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128">
+        <v>172.142</v>
+      </c>
+      <c r="F128">
+        <v>1116429.717302281</v>
+      </c>
+      <c r="G128">
+        <v>4841338.832834589</v>
+      </c>
+      <c r="H128">
+        <v>3985977.655239234</v>
+      </c>
+      <c r="I128">
+        <v>1115614.82178279</v>
+      </c>
+      <c r="J128">
+        <v>4842255.530603152</v>
+      </c>
+      <c r="K128">
+        <v>3987559.571399658</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>11</v>
+      </c>
+      <c r="B129" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129">
+        <v>173.142</v>
+      </c>
+      <c r="F129">
+        <v>1116427.242906454</v>
+      </c>
+      <c r="G129">
+        <v>4841355.345652445</v>
+      </c>
+      <c r="H129">
+        <v>3985999.788239331</v>
+      </c>
+      <c r="I129">
+        <v>1115662.993055565</v>
+      </c>
+      <c r="J129">
+        <v>4842206.878961788</v>
+      </c>
+      <c r="K129">
+        <v>3987560.394175681</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>11</v>
+      </c>
+      <c r="B130" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E130">
+        <v>174.142</v>
+      </c>
+      <c r="F130">
+        <v>1116425.019271025</v>
+      </c>
+      <c r="G130">
+        <v>4841371.858470301</v>
+      </c>
+      <c r="H130">
+        <v>3986020.399933806</v>
+      </c>
+      <c r="I130">
+        <v>1115712.350501615</v>
+      </c>
+      <c r="J130">
+        <v>4842158.227320425</v>
+      </c>
+      <c r="K130">
+        <v>3987546.068322995</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>11</v>
+      </c>
+      <c r="B131" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" t="s">
+        <v>17</v>
+      </c>
+      <c r="E131">
+        <v>175.142</v>
+      </c>
+      <c r="F131">
+        <v>1116423.006768813</v>
+      </c>
+      <c r="G131">
+        <v>4841388.371288157</v>
+      </c>
+      <c r="H131">
+        <v>3986039.686072877</v>
+      </c>
+      <c r="I131">
+        <v>1115762.923329367</v>
+      </c>
+      <c r="J131">
+        <v>4842109.575679062</v>
+      </c>
+      <c r="K131">
+        <v>3987516.593841602</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>11</v>
+      </c>
+      <c r="B132" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132">
+        <v>176.142</v>
+      </c>
+      <c r="F132">
+        <v>1116421.174009771</v>
+      </c>
+      <c r="G132">
+        <v>4841404.884106013</v>
+      </c>
+      <c r="H132">
+        <v>3986057.806898263</v>
+      </c>
+      <c r="I132">
+        <v>1115814.741466475</v>
+      </c>
+      <c r="J132">
+        <v>4842060.9240377</v>
+      </c>
+      <c r="K132">
+        <v>3987471.970731501</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>11</v>
+      </c>
+      <c r="B133" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133">
+        <v>177.142</v>
+      </c>
+      <c r="F133">
+        <v>1116419.495764973</v>
+      </c>
+      <c r="G133">
+        <v>4841421.396923869</v>
+      </c>
+      <c r="H133">
+        <v>3986074.895243863</v>
+      </c>
+      <c r="I133">
+        <v>1115867.835577538</v>
+      </c>
+      <c r="J133">
+        <v>4842012.272396335</v>
+      </c>
+      <c r="K133">
+        <v>3987412.198992691</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>11</v>
+      </c>
+      <c r="B134" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134">
+        <v>178.142</v>
+      </c>
+      <c r="F134">
+        <v>1116417.951495643</v>
+      </c>
+      <c r="G134">
+        <v>4841437.909741725</v>
+      </c>
+      <c r="H134">
+        <v>3986091.06245051</v>
+      </c>
+      <c r="I134">
+        <v>1115922.237082241</v>
+      </c>
+      <c r="J134">
+        <v>4841963.620754973</v>
+      </c>
+      <c r="K134">
+        <v>3987337.278625174</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>11</v>
+      </c>
+      <c r="B135" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" t="s">
+        <v>17</v>
+      </c>
+      <c r="E135">
+        <v>179.142</v>
+      </c>
+      <c r="F135">
+        <v>1116416.524289471</v>
+      </c>
+      <c r="G135">
+        <v>4841454.422559582</v>
+      </c>
+      <c r="H135">
+        <v>3986106.402766527</v>
+      </c>
+      <c r="I135">
+        <v>1115977.978173948</v>
+      </c>
+      <c r="J135">
+        <v>4841914.96911361</v>
+      </c>
+      <c r="K135">
+        <v>3987247.20962895</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>11</v>
+      </c>
+      <c r="B136" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" t="s">
+        <v>17</v>
+      </c>
+      <c r="E136">
+        <v>180.142</v>
+      </c>
+      <c r="F136">
+        <v>1116415.200077436</v>
+      </c>
+      <c r="G136">
+        <v>4841470.935377437</v>
+      </c>
+      <c r="H136">
+        <v>3986120.996676674</v>
+      </c>
+      <c r="I136">
+        <v>1116035.091838757</v>
+      </c>
+      <c r="J136">
+        <v>4841866.317472247</v>
+      </c>
+      <c r="K136">
+        <v>3987141.992004017</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>11</v>
+      </c>
+      <c r="B137" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" t="s">
+        <v>17</v>
+      </c>
+      <c r="E137">
+        <v>181.142</v>
+      </c>
+      <c r="F137">
+        <v>1116413.967047749</v>
+      </c>
+      <c r="G137">
+        <v>4841487.448195294</v>
+      </c>
+      <c r="H137">
+        <v>3986134.913458166</v>
+      </c>
+      <c r="I137">
+        <v>1116093.611875019</v>
+      </c>
+      <c r="J137">
+        <v>4841817.665830883</v>
+      </c>
+      <c r="K137">
+        <v>3987021.625750376</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>11</v>
+      </c>
+      <c r="B138" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" t="s">
+        <v>17</v>
+      </c>
+      <c r="E138">
+        <v>182.142</v>
+      </c>
+      <c r="F138">
+        <v>1116412.815200894</v>
+      </c>
+      <c r="G138">
+        <v>4841503.961013149</v>
+      </c>
+      <c r="H138">
+        <v>3986148.213169562</v>
+      </c>
+      <c r="I138">
+        <v>1116153.572913337</v>
+      </c>
+      <c r="J138">
+        <v>4841769.014189521</v>
+      </c>
+      <c r="K138">
+        <v>3986886.110868027</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>11</v>
+      </c>
+      <c r="B139" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" t="s">
+        <v>17</v>
+      </c>
+      <c r="E139">
+        <v>183.142</v>
+      </c>
+      <c r="F139">
+        <v>1116411.736007322</v>
+      </c>
+      <c r="G139">
+        <v>4841520.473831004</v>
+      </c>
+      <c r="H139">
+        <v>3986160.948217161</v>
+      </c>
+      <c r="I139">
+        <v>1116215.010437059</v>
+      </c>
+      <c r="J139">
+        <v>4841720.362548158</v>
+      </c>
+      <c r="K139">
+        <v>3986735.447356971</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>11</v>
+      </c>
+      <c r="B140" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" t="s">
+        <v>17</v>
+      </c>
+      <c r="E140">
+        <v>184.142</v>
+      </c>
+      <c r="F140">
+        <v>1116410.722140945</v>
+      </c>
+      <c r="G140">
+        <v>4841536.986648861</v>
+      </c>
+      <c r="H140">
+        <v>3986173.164602208</v>
+      </c>
+      <c r="I140">
+        <v>1116277.960803282</v>
+      </c>
+      <c r="J140">
+        <v>4841671.710906795</v>
+      </c>
+      <c r="K140">
+        <v>3986569.635217206</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141">
+        <v>11</v>
+      </c>
+      <c r="B141" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" t="s">
+        <v>17</v>
+      </c>
+      <c r="E141">
+        <v>185.142</v>
+      </c>
+      <c r="F141">
+        <v>1116409.767269371</v>
+      </c>
+      <c r="G141">
+        <v>4841553.499466716</v>
+      </c>
+      <c r="H141">
+        <v>3986184.902923926</v>
+      </c>
+      <c r="I141">
+        <v>1116342.46126436</v>
+      </c>
+      <c r="J141">
+        <v>4841623.059265431</v>
+      </c>
+      <c r="K141">
+        <v>3986388.674448733</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142">
+        <v>11</v>
+      </c>
+      <c r="B142" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" t="s">
+        <v>17</v>
+      </c>
+      <c r="E142">
+        <v>186.142</v>
+      </c>
+      <c r="F142">
+        <v>1116408.865887151</v>
+      </c>
+      <c r="G142">
+        <v>4841570.012284573</v>
+      </c>
+      <c r="H142">
+        <v>3986196.199193575</v>
+      </c>
+      <c r="I142">
+        <v>1116408.549989953</v>
+      </c>
+      <c r="J142">
+        <v>4841574.407624069</v>
+      </c>
+      <c r="K142">
+        <v>3986192.565051553</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143">
+        <v>11</v>
+      </c>
+      <c r="B143" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" t="s">
+        <v>17</v>
+      </c>
+      <c r="E143">
+        <v>187.142</v>
+      </c>
+      <c r="F143">
+        <v>1116408.013181973</v>
+      </c>
+      <c r="G143">
+        <v>4841586.525102429</v>
+      </c>
+      <c r="H143">
+        <v>3986207.085500726</v>
+      </c>
+      <c r="I143">
+        <v>1116476.266089613</v>
+      </c>
+      <c r="J143">
+        <v>4841525.755982705</v>
+      </c>
+      <c r="K143">
+        <v>3985981.307025664</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144">
+        <v>11</v>
+      </c>
+      <c r="B144" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144">
+        <v>188.142</v>
+      </c>
+      <c r="F144">
+        <v>1116407.204926401</v>
+      </c>
+      <c r="G144">
+        <v>4841603.037920285</v>
+      </c>
+      <c r="H144">
+        <v>3986217.590562802</v>
+      </c>
+      <c r="I144">
+        <v>1116545.649635929</v>
+      </c>
+      <c r="J144">
+        <v>4841477.104341343</v>
+      </c>
+      <c r="K144">
+        <v>3985754.900371068</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145">
+        <v>11</v>
+      </c>
+      <c r="B145" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145">
+        <v>189.142</v>
+      </c>
+      <c r="F145">
+        <v>1116406.437389574</v>
+      </c>
+      <c r="G145">
+        <v>4841619.550738141</v>
+      </c>
+      <c r="H145">
+        <v>3986227.740181624</v>
+      </c>
+      <c r="I145">
+        <v>1116616.741688242</v>
+      </c>
+      <c r="J145">
+        <v>4841428.452699979</v>
+      </c>
+      <c r="K145">
+        <v>3985513.345087764</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146">
+        <v>11</v>
+      </c>
+      <c r="B146" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146">
+        <v>190.142</v>
+      </c>
+      <c r="F146">
+        <v>1116405.707264669</v>
+      </c>
+      <c r="G146">
+        <v>4841636.063555997</v>
+      </c>
+      <c r="H146">
+        <v>3986237.557625202</v>
+      </c>
+      <c r="I146">
+        <v>1116689.584316939</v>
+      </c>
+      <c r="J146">
+        <v>4841379.801058616</v>
+      </c>
+      <c r="K146">
+        <v>3985256.641175752</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147">
+        <v>11</v>
+      </c>
+      <c r="B147" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147">
+        <v>191.142</v>
+      </c>
+      <c r="F147">
+        <v>1116405.011608904</v>
+      </c>
+      <c r="G147">
+        <v>4841652.576373853</v>
+      </c>
+      <c r="H147">
+        <v>3986247.063949021</v>
+      </c>
+      <c r="I147">
+        <v>1116764.220628354</v>
+      </c>
+      <c r="J147">
+        <v>4841331.149417253</v>
+      </c>
+      <c r="K147">
+        <v>3984984.788635031</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148">
+        <v>11</v>
+      </c>
+      <c r="B148" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" t="s">
+        <v>17</v>
+      </c>
+      <c r="E148">
+        <v>192.142</v>
+      </c>
+      <c r="F148">
+        <v>1116404.347793592</v>
+      </c>
+      <c r="G148">
+        <v>4841669.089191709</v>
+      </c>
+      <c r="H148">
+        <v>3986256.278267957</v>
+      </c>
+      <c r="I148">
+        <v>1116840.694790274</v>
+      </c>
+      <c r="J148">
+        <v>4841282.497775891</v>
+      </c>
+      <c r="K148">
+        <v>3984697.787465603</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149">
+        <v>11</v>
+      </c>
+      <c r="B149" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" t="s">
+        <v>17</v>
+      </c>
+      <c r="E149">
+        <v>193.142</v>
+      </c>
+      <c r="F149">
+        <v>1116403.713462327</v>
+      </c>
+      <c r="G149">
+        <v>4841685.602009566</v>
+      </c>
+      <c r="H149">
+        <v>3986265.217987663</v>
+      </c>
+      <c r="I149">
+        <v>1116919.052058076</v>
+      </c>
+      <c r="J149">
+        <v>4841233.846134528</v>
+      </c>
+      <c r="K149">
+        <v>3984395.637667467</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150">
+        <v>11</v>
+      </c>
+      <c r="B150" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" t="s">
+        <v>17</v>
+      </c>
+      <c r="E150">
+        <v>194.142</v>
+      </c>
+      <c r="F150">
+        <v>1116403.106495773</v>
+      </c>
+      <c r="G150">
+        <v>4841702.114827421</v>
+      </c>
+      <c r="H150">
+        <v>3986273.89900247</v>
+      </c>
+      <c r="I150">
+        <v>1116999.33880151</v>
+      </c>
+      <c r="J150">
+        <v>4841185.194493164</v>
+      </c>
+      <c r="K150">
+        <v>3984078.339240623</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151">
+        <v>11</v>
+      </c>
+      <c r="B151" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" t="s">
+        <v>17</v>
+      </c>
+      <c r="E151">
+        <v>195.142</v>
+      </c>
+      <c r="F151">
+        <v>1116402.524981861</v>
+      </c>
+      <c r="G151">
+        <v>4841718.627645277</v>
+      </c>
+      <c r="H151">
+        <v>3986282.335865443</v>
+      </c>
+      <c r="I151">
+        <v>1117081.602532138</v>
+      </c>
+      <c r="J151">
+        <v>4841136.542851802</v>
+      </c>
+      <c r="K151">
+        <v>3983745.892185071</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>11</v>
+      </c>
+      <c r="B152" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" t="s">
+        <v>17</v>
+      </c>
+      <c r="E152">
+        <v>196.142</v>
+      </c>
+      <c r="F152">
+        <v>1116401.967190444</v>
+      </c>
+      <c r="G152">
+        <v>4841735.140463132</v>
+      </c>
+      <c r="H152">
+        <v>3986290.541935175</v>
+      </c>
+      <c r="I152">
+        <v>1117165.891931453</v>
+      </c>
+      <c r="J152">
+        <v>4841087.891210438</v>
+      </c>
+      <c r="K152">
+        <v>3983398.296500811</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>11</v>
+      </c>
+      <c r="B153" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" t="s">
+        <v>17</v>
+      </c>
+      <c r="E153">
+        <v>197.142</v>
+      </c>
+      <c r="F153">
+        <v>1116401.431551633</v>
+      </c>
+      <c r="G153">
+        <v>4841751.653280989</v>
+      </c>
+      <c r="H153">
+        <v>3986298.529503032</v>
+      </c>
+      <c r="I153">
+        <v>1117252.25687968</v>
+      </c>
+      <c r="J153">
+        <v>4841039.239569075</v>
+      </c>
+      <c r="K153">
+        <v>3983035.552187844</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154">
+        <v>11</v>
+      </c>
+      <c r="B154" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" t="s">
+        <v>17</v>
+      </c>
+      <c r="E154">
+        <v>198.142</v>
+      </c>
+      <c r="F154">
+        <v>1116400.916637208</v>
+      </c>
+      <c r="G154">
+        <v>4841768.166098845</v>
+      </c>
+      <c r="H154">
+        <v>3986306.309903891</v>
+      </c>
+      <c r="I154">
+        <v>1117340.748485303</v>
+      </c>
+      <c r="J154">
+        <v>4840990.587927712</v>
+      </c>
+      <c r="K154">
+        <v>3982657.659246168</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>11</v>
+      </c>
+      <c r="B155" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155">
+        <v>199.142</v>
+      </c>
+      <c r="F155">
+        <v>1116400.421144597</v>
+      </c>
+      <c r="G155">
+        <v>4841784.6789167</v>
+      </c>
+      <c r="H155">
+        <v>3986313.893612881</v>
+      </c>
+      <c r="I155">
+        <v>1117431.419115304</v>
+      </c>
+      <c r="J155">
+        <v>4840941.93628635</v>
+      </c>
+      <c r="K155">
+        <v>3982264.617675785</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>11</v>
+      </c>
+      <c r="B156" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156">
+        <v>200.142</v>
+      </c>
+      <c r="F156">
+        <v>1116399.943883017</v>
+      </c>
+      <c r="G156">
+        <v>4841801.191734557</v>
+      </c>
+      <c r="H156">
+        <v>3986321.290330192</v>
+      </c>
+      <c r="I156">
+        <v>1117524.322426154</v>
+      </c>
+      <c r="J156">
+        <v>4840893.284644986</v>
+      </c>
+      <c r="K156">
+        <v>3981856.427476693</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>11</v>
+      </c>
+      <c r="B157" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157" t="s">
+        <v>17</v>
+      </c>
+      <c r="E157">
+        <v>201.142</v>
+      </c>
+      <c r="F157">
+        <v>1116399.483761433</v>
+      </c>
+      <c r="G157">
+        <v>4841817.704552413</v>
+      </c>
+      <c r="H157">
+        <v>3986328.509055673</v>
+      </c>
+      <c r="I157">
+        <v>1117619.513395563</v>
+      </c>
+      <c r="J157">
+        <v>4840844.633003623</v>
+      </c>
+      <c r="K157">
+        <v>3981433.088648893</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>11</v>
+      </c>
+      <c r="B158" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" t="s">
+        <v>17</v>
+      </c>
+      <c r="E158">
+        <v>202.142</v>
+      </c>
+      <c r="F158">
+        <v>1116399.039778068</v>
+      </c>
+      <c r="G158">
+        <v>4841834.217370269</v>
+      </c>
+      <c r="H158">
+        <v>3986335.558154676</v>
+      </c>
+      <c r="I158">
+        <v>1117717.04835502</v>
+      </c>
+      <c r="J158">
+        <v>4840795.98136226</v>
+      </c>
+      <c r="K158">
+        <v>3980994.601192386</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>11</v>
+      </c>
+      <c r="B159" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" t="s">
+        <v>17</v>
+      </c>
+      <c r="E159">
+        <v>203.142</v>
+      </c>
+      <c r="F159">
+        <v>1116398.611011235</v>
+      </c>
+      <c r="G159">
+        <v>4841850.730188125</v>
+      </c>
+      <c r="H159">
+        <v>3986342.445416327</v>
+      </c>
+      <c r="I159">
+        <v>1117816.985023123</v>
+      </c>
+      <c r="J159">
+        <v>4840747.329720898</v>
+      </c>
+      <c r="K159">
+        <v>3980540.96510717</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>11</v>
+      </c>
+      <c r="B160" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" t="s">
+        <v>17</v>
+      </c>
+      <c r="E160">
+        <v>204.142</v>
+      </c>
+      <c r="F160">
+        <v>1116398.196611281</v>
+      </c>
+      <c r="G160">
+        <v>4841867.243005982</v>
+      </c>
+      <c r="H160">
+        <v>3986349.178105267</v>
+      </c>
+      <c r="I160">
+        <v>1117919.382539739</v>
+      </c>
+      <c r="J160">
+        <v>4840698.678079533</v>
+      </c>
+      <c r="K160">
+        <v>3980072.180393247</v>
       </c>
     </row>
   </sheetData>
